--- a/data/Infra_FAQ_Data.xlsx
+++ b/data/Infra_FAQ_Data.xlsx
@@ -1,68 +1,332 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MBA\Internship\Telecom_Provider_Company_GenAI_Chatbot\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374E6A04-0714-444A-928F-5C6D02F66346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>My internet connection is slow.</t>
-  </si>
-  <si>
-    <t>How do I install a Wi-Fi extender?</t>
-  </si>
-  <si>
-    <t>What's the warranty period?</t>
-  </si>
-  <si>
-    <t>How to contact support?</t>
-  </si>
-  <si>
-    <t>How to check if my fiber modem is working?</t>
-  </si>
-  <si>
-    <t>My router is overheating.</t>
-  </si>
-  <si>
-    <t>Try rebooting your router. If the issue persists, check for interference or call support.</t>
-  </si>
-  <si>
-    <t>Plug it in near your router, connect using WPS or app, and move it to desired location.</t>
-  </si>
-  <si>
-    <t>Our hardware comes with 1 to 3 years warranty depending on the product.</t>
-  </si>
-  <si>
-    <t>You can call 1800-555-1234 or email support@commscope.com.</t>
-  </si>
-  <si>
-    <t>Check the power LED and fiber signal light. Refer to the manual or call support.</t>
-  </si>
-  <si>
-    <t>Ensure it's in a ventilated space. Unplug for 10 mins and restart.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Why is my Wi-Fi signal weak in some rooms?</t>
+  </si>
+  <si>
+    <t>Walls and distance reduce signal. Try a Wi-Fi extender or mesh system.</t>
+  </si>
+  <si>
+    <t>How to reset my router?</t>
+  </si>
+  <si>
+    <t>Press and hold the reset button for 10 seconds until lights blink.</t>
+  </si>
+  <si>
+    <t>What is the default router password?</t>
+  </si>
+  <si>
+    <t>Usually printed on the router label or is 'admin'. Change it after first login.</t>
+  </si>
+  <si>
+    <t>Can I use my own modem with your service?</t>
+  </si>
+  <si>
+    <t>Yes, but ensure it’s compatible with our network specifications.</t>
+  </si>
+  <si>
+    <t>How can I update my router firmware?</t>
+  </si>
+  <si>
+    <t>Log into the router's web portal and check for updates under Settings.</t>
+  </si>
+  <si>
+    <t>Do you support IPv6?</t>
+  </si>
+  <si>
+    <t>Yes, our network and devices support IPv6 configurations.</t>
+  </si>
+  <si>
+    <t>Why is my internet disconnecting frequently?</t>
+  </si>
+  <si>
+    <t>It could be due to firmware issues, line problems, or loose cables. Contact support.</t>
+  </si>
+  <si>
+    <t>Can I upgrade my router?</t>
+  </si>
+  <si>
+    <t>Yes, contact customer service for upgrade options and supported models.</t>
+  </si>
+  <si>
+    <t>What's the average installation time for fiber?</t>
+  </si>
+  <si>
+    <t>Around 2 to 4 hours depending on the location and wiring.</t>
+  </si>
+  <si>
+    <t>Do I need a technician for Wi-Fi setup?</t>
+  </si>
+  <si>
+    <t>Not necessarily. We offer easy self-install kits, but tech help is available if needed.</t>
+  </si>
+  <si>
+    <t>What ports are needed for internet?</t>
+  </si>
+  <si>
+    <t>Ethernet (LAN), WAN, and Fiber (SFP) ports are commonly used.</t>
+  </si>
+  <si>
+    <t>What’s the blinking red light on my modem?</t>
+  </si>
+  <si>
+    <t>It indicates a connectivity issue. Check fiber cable or call support.</t>
+  </si>
+  <si>
+    <t>How do I access router settings?</t>
+  </si>
+  <si>
+    <t>Enter the IP address (usually 192.168.0.1) in a browser and log in.</t>
+  </si>
+  <si>
+    <t>Can I get faster upload speed?</t>
+  </si>
+  <si>
+    <t>Yes, contact support to check if your plan supports higher upload speeds.</t>
+  </si>
+  <si>
+    <t>What causes high ping/latency?</t>
+  </si>
+  <si>
+    <t>Network congestion, distance from servers, or outdated equipment.</t>
+  </si>
+  <si>
+    <t>How do I change my Wi-Fi password?</t>
+  </si>
+  <si>
+    <t>Login to your router and change it under Wireless Settings.</t>
+  </si>
+  <si>
+    <t>Why is my fiber speed slower than expected?</t>
+  </si>
+  <si>
+    <t>Check for background apps, cable quality, or outdated router.</t>
+  </si>
+  <si>
+    <t>Is there an app to manage my network?</t>
+  </si>
+  <si>
+    <t>Yes, download our XYZ Network Manager app from Play Store or App Store.</t>
+  </si>
+  <si>
+    <t>How to switch from DSL to Fiber?</t>
+  </si>
+  <si>
+    <t>Contact our sales team to check fiber availability in your area.</t>
+  </si>
+  <si>
+    <t>What is the monthly data cap?</t>
+  </si>
+  <si>
+    <t>Most plans are unlimited. Some entry-level plans may have fair usage limits.</t>
+  </si>
+  <si>
+    <t>How can I view my internet usage?</t>
+  </si>
+  <si>
+    <t>Log into your account on our website or app to see usage stats.</t>
+  </si>
+  <si>
+    <t>Can I pause internet for specific devices?</t>
+  </si>
+  <si>
+    <t>Yes, use parental control features in the router or our app.</t>
+  </si>
+  <si>
+    <t>What do different router lights mean?</t>
+  </si>
+  <si>
+    <t>Green = normal, Amber = booting, Red = error, Blinking = activity.</t>
+  </si>
+  <si>
+    <t>What to do if my router isn’t powering on?</t>
+  </si>
+  <si>
+    <t>Try another outlet, check the power adapter, or request a replacement.</t>
+  </si>
+  <si>
+    <t>Does the warranty cover power surges?</t>
+  </si>
+  <si>
+    <t>Only if a surge protector was used. Otherwise, it's not covered.</t>
+  </si>
+  <si>
+    <t>Do you offer business plans?</t>
+  </si>
+  <si>
+    <t>Yes, we offer custom broadband and infrastructure solutions for businesses.</t>
+  </si>
+  <si>
+    <t>How can I schedule a technician visit?</t>
+  </si>
+  <si>
+    <t>Call 1800-555-1234 or schedule through our support portal.</t>
+  </si>
+  <si>
+    <t>Can I move my connection to a new address?</t>
+  </si>
+  <si>
+    <t>Yes, request a relocation at least 5 days before your move.</t>
+  </si>
+  <si>
+    <t>Is VoIP supported on your network?</t>
+  </si>
+  <si>
+    <t>Yes, our infrastructure supports Voice over IP services.</t>
+  </si>
+  <si>
+    <t>How to connect multiple routers?</t>
+  </si>
+  <si>
+    <t>Use one as a primary and the second in bridge or repeater mode.</t>
+  </si>
+  <si>
+    <t>What is mesh Wi-Fi?</t>
+  </si>
+  <si>
+    <t>It’s a system of multiple routers that work together to extend coverage.</t>
+  </si>
+  <si>
+    <t>How to block a device on my network?</t>
+  </si>
+  <si>
+    <t>Use the router’s MAC filtering or our mobile app.</t>
+  </si>
+  <si>
+    <t>Why is my internet slower at night?</t>
+  </si>
+  <si>
+    <t>It could be due to peak-hour usage. Upgrade plan for more bandwidth.</t>
+  </si>
+  <si>
+    <t>Can I turn off the router lights?</t>
+  </si>
+  <si>
+    <t>Some models have a "Night Mode" option in settings.</t>
+  </si>
+  <si>
+    <t>What’s the range of my router?</t>
+  </si>
+  <si>
+    <t>Typically 30–50 feet indoors. Walls and devices can reduce range.</t>
+  </si>
+  <si>
+    <t>How to boost signal in a large house?</t>
+  </si>
+  <si>
+    <t>Use mesh Wi-Fi or multiple access points.</t>
+  </si>
+  <si>
+    <t>What is port forwarding?</t>
+  </si>
+  <si>
+    <t>It's a way to allow external devices to access services on your network.</t>
+  </si>
+  <si>
+    <t>How secure is my Wi-Fi?</t>
+  </si>
+  <si>
+    <t>Use WPA3 encryption, a strong password, and keep firmware updated.</t>
+  </si>
+  <si>
+    <t>Can I get a static IP address?</t>
+  </si>
+  <si>
+    <t>Yes, available on request for business or advanced users.</t>
+  </si>
+  <si>
+    <t>What’s the difference between 2.4GHz and 5GHz Wi-Fi?</t>
+  </si>
+  <si>
+    <t>2.4GHz covers more distance; 5GHz is faster but shorter range.</t>
+  </si>
+  <si>
+    <t>Why can’t I connect to Wi-Fi on one device?</t>
+  </si>
+  <si>
+    <t>Restart the device, forget the network, and reconnect with correct password.</t>
+  </si>
+  <si>
+    <t>Does your modem support VPN?</t>
+  </si>
+  <si>
+    <t>Most models do; check the specifications or consult support.</t>
+  </si>
+  <si>
+    <t>What’s the installation charge?</t>
+  </si>
+  <si>
+    <t>Usually free with a contract. Otherwise, one-time setup charges apply.</t>
+  </si>
+  <si>
+    <t>Can I pay my bill online?</t>
+  </si>
+  <si>
+    <t>Yes, through our website, app, or third-party payment gateways.</t>
+  </si>
+  <si>
+    <t>What payment methods are accepted?</t>
+  </si>
+  <si>
+    <t>Credit/debit card, net banking, UPI, and e-wallets.</t>
+  </si>
+  <si>
+    <t>What to do if I missed my payment?</t>
+  </si>
+  <si>
+    <t>Pay online or contact support to avoid late fees and reconnection delay.</t>
+  </si>
+  <si>
+    <t>How to upgrade my data plan?</t>
+  </si>
+  <si>
+    <t>Log in to your account or call customer support to switch plans.</t>
+  </si>
+  <si>
+    <t>How to download my monthly bill?</t>
+  </si>
+  <si>
+    <t>Login to your customer portal and download it under Billing section.</t>
+  </si>
+  <si>
+    <t>Do you offer student or senior discounts?</t>
+  </si>
+  <si>
+    <t>Yes, contact sales team to check eligibility and documentation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -95,29 +359,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -125,13 +377,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +429,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,6 +463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,9 +498,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,14 +674,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,52 +695,396 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
